--- a/output.xlsx
+++ b/output.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -24,13 +24,31 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -42,14 +60,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
+    <cellStyle name="60% - Accent1" xfId="2" builtinId="32"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
@@ -427,122 +452,154 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>inputs/a.xml</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>var_1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3591</t>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>1908</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>var_2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>6204</t>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>7696</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>var_3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3596</t>
-        </is>
-      </c>
-    </row>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>9468</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" s="2"/>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>inputs/b.xml</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>var_1</t>
         </is>
       </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>9675</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>var_2</t>
         </is>
       </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>4171</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>var_3</t>
         </is>
       </c>
-    </row>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>4208</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" s="2"/>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>inputs/c.xml</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>var_1</t>
         </is>
       </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>9308</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>var_2</t>
         </is>
       </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>2340</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>var_3</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>5311</t>
         </is>
       </c>
     </row>
